--- a/Excel File/12-09_raptor.xlsx
+++ b/Excel File/12-09_raptor.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sishihao/Desktop/WPI/17Spring/CS573/final/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhixi\Documents\GitHub\17S_DataVisFinal\Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,19 +152,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,19 +170,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -210,24 +195,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -235,6 +216,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -505,1096 +489,1075 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="185" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="J1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="N1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A2" s="5">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>1.5604166666666668</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>3.2</v>
       </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
         <v>5</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>5</v>
       </c>
-      <c r="J2" s="6">
-        <v>2</v>
-      </c>
-      <c r="K2" s="6">
-        <v>1</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6">
+      <c r="J2" s="5">
+        <v>2</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
         <v>5</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A3" s="5">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>1.4958333333333333</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>23.1</v>
       </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
         <v>6</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>7</v>
       </c>
-      <c r="J3" s="6">
-        <v>2</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5">
         <v>4</v>
       </c>
-      <c r="L3" s="6">
-        <v>3</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6">
+      <c r="L3" s="5">
+        <v>3</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A4" s="5">
         <v>24</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>1.4805555555555554</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>19.2</v>
       </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>3</v>
-      </c>
-      <c r="I4" s="6">
-        <v>3</v>
-      </c>
-      <c r="J4" s="6">
-        <v>2</v>
-      </c>
-      <c r="K4" s="6">
-        <v>2</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5">
+        <v>2</v>
+      </c>
+      <c r="L4" s="5">
         <v>5</v>
       </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6">
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A5" s="5">
         <v>43</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7">
         <v>0.59722222222222221</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>3.5</v>
       </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>3</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5">
         <v>4</v>
       </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A6" s="5">
         <v>17</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>1.0034722222222221</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>5.8</v>
       </c>
-      <c r="G6" s="6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
         <v>8</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>10</v>
       </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>2</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>2</v>
-      </c>
-      <c r="O6" s="6">
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>2</v>
+      </c>
+      <c r="O6" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>0.98611111111111116</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A8" s="5">
         <v>92</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>0.90208333333333324</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>5</v>
       </c>
-      <c r="G8" s="6">
-        <v>2</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
         <v>6</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>8</v>
       </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6">
-        <v>3</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6">
-        <v>2</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>3</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A9" s="5">
         <v>54</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6">
         <v>1.2694444444444444</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G9" s="6">
-        <v>2</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
         <v>8</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>10</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>4</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>5</v>
       </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="6">
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A10" s="5">
         <v>31</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>0.70486111111111116</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>1.2</v>
       </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>2</v>
-      </c>
-      <c r="I10" s="6">
-        <v>2</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>3</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>1</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
         <v>6</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
         <v>240</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>87.9</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>8</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>42</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>56</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>12</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>22</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>9</v>
       </c>
-      <c r="M12" s="6">
-        <v>2</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="M12" s="5">
+        <v>2</v>
+      </c>
+      <c r="N12" s="5">
         <v>11</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>1.4256944444444446</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>10</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
         <v>5</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>5</v>
       </c>
-      <c r="J13" s="2">
-        <v>2</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
         <v>5</v>
       </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>4</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A14" s="1">
         <v>99</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>1.3736111111111111</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>6.5</v>
       </c>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
         <v>4</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>6</v>
       </c>
-      <c r="J14" s="2">
-        <v>3</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A15" s="1">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>1.3152777777777778</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>14.4</v>
       </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
         <v>6</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>7</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>6</v>
       </c>
-      <c r="K15" s="2">
-        <v>2</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
         <v>4</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A16" s="1">
         <v>90</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
         <v>0.52500000000000002</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>5.8</v>
       </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>3</v>
-      </c>
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A17" s="1">
         <v>36</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>1.4944444444444445</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>7.6</v>
       </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>3</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
         <v>4</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>5</v>
       </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>2</v>
-      </c>
-      <c r="O17" s="2">
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A18" s="1">
         <v>7</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>0.90208333333333324</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>5.2</v>
       </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>3</v>
-      </c>
-      <c r="I18" s="2">
-        <v>3</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A19" s="1">
         <v>8</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
         <v>0.72291666666666676</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>6</v>
       </c>
-      <c r="G19" s="2">
-        <v>2</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>3</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>2</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A20" s="1">
         <v>41</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>0.97777777777777775</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>9.5</v>
       </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
         <v>8</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>9</v>
       </c>
-      <c r="J20" s="2">
-        <v>3</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2">
-        <v>2</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2">
-        <v>2</v>
-      </c>
-      <c r="O20" s="2">
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2</v>
+      </c>
+      <c r="O20" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A21" s="1">
         <v>12</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>1.0347222222222221</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>4.8</v>
       </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>3</v>
-      </c>
-      <c r="I21" s="2">
-        <v>3</v>
-      </c>
-      <c r="J21" s="2">
-        <v>3</v>
-      </c>
-      <c r="K21" s="2">
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1">
         <v>4</v>
       </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1</v>
-      </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="2">
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A22" s="1">
         <v>44</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>0.22847222222222222</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>1.2</v>
       </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2</v>
-      </c>
-      <c r="I22" s="2">
-        <v>3</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
         <v>8</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
         <v>240</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>89</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>8</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>38</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>54</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>24</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>18</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>5</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="1">
         <v>4</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="1">
         <v>14</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="1">
         <v>94</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B13" r:id="rId10"/>
-    <hyperlink ref="B14" r:id="rId11"/>
-    <hyperlink ref="B15" r:id="rId12"/>
-    <hyperlink ref="B16" r:id="rId13"/>
-    <hyperlink ref="B17" r:id="rId14"/>
-    <hyperlink ref="B18" r:id="rId15"/>
-    <hyperlink ref="B19" r:id="rId16"/>
-    <hyperlink ref="B20" r:id="rId17"/>
-    <hyperlink ref="B21" r:id="rId18"/>
-    <hyperlink ref="B22" r:id="rId19"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>